--- a/Oaxaca Completes.xlsx
+++ b/Oaxaca Completes.xlsx
@@ -26,7 +26,7 @@
     <t>donaldo.morales@sspo.gob.mx</t>
   </si>
   <si>
-    <t>Oaxaca</t>
+    <t>Secretaría de Seguridad Pública del Estado de Oaxaca</t>
   </si>
   <si>
     <t>EDUARDO</t>

--- a/Oaxaca Completes.xlsx
+++ b/Oaxaca Completes.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Oaxaca" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15,7 +15,2131 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="730">
+  <si>
+    <t>Adrian</t>
+  </si>
+  <si>
+    <t>Becerra Palos</t>
+  </si>
+  <si>
+    <t>adrianbecerra251@gmail.com</t>
+  </si>
+  <si>
+    <t>Aguascalientes</t>
+  </si>
+  <si>
+    <t>Maria Alejandra</t>
+  </si>
+  <si>
+    <t>Diaz de Leon Macias</t>
+  </si>
+  <si>
+    <t>alejandra.diaz@aguascalientes.gob.mx</t>
+  </si>
+  <si>
+    <t>Jorge</t>
+  </si>
+  <si>
+    <t>Guerra Jimenez</t>
+  </si>
+  <si>
+    <t>asesoria_e@hotmail.com</t>
+  </si>
+  <si>
+    <t>Madeley</t>
+  </si>
+  <si>
+    <t>Rangel Macedonio</t>
+  </si>
+  <si>
+    <t>betyboopmade@hotmail.com</t>
+  </si>
+  <si>
+    <t>Carlos Ernesto</t>
+  </si>
+  <si>
+    <t>MORENO RIVERA</t>
+  </si>
+  <si>
+    <t>cemoreno28@hotmail.com</t>
+  </si>
+  <si>
+    <t>Rigobert</t>
+  </si>
+  <si>
+    <t>Valdez martin del campo</t>
+  </si>
+  <si>
+    <t>estatalpolicia@yahoo.com.mx</t>
+  </si>
+  <si>
+    <t>Juan Eduardo</t>
+  </si>
+  <si>
+    <t>Silva Reyes</t>
+  </si>
+  <si>
+    <t>Gallolalo3621@outlook.es</t>
+  </si>
+  <si>
+    <t>Carlos</t>
+  </si>
+  <si>
+    <t>Colorado Morales</t>
+  </si>
+  <si>
+    <t>jack01mayo@gmail.com</t>
+  </si>
+  <si>
+    <t>Jose de Jesus</t>
+  </si>
+  <si>
+    <t>Martinez Herrera</t>
+  </si>
+  <si>
+    <t>jesusmherreraoficial@hotmail.com</t>
+  </si>
+  <si>
+    <t>Jose Manuel</t>
+  </si>
+  <si>
+    <t>Soto Guzman</t>
+  </si>
+  <si>
+    <t>josesoto1loky@gmail.com</t>
+  </si>
+  <si>
+    <t>Guillermo</t>
+  </si>
+  <si>
+    <t>De la Paz Ortega</t>
+  </si>
+  <si>
+    <t>kpaz1980logan@gmail.com</t>
+  </si>
+  <si>
+    <t>Lucila</t>
+  </si>
+  <si>
+    <t>Vela Lopez</t>
+  </si>
+  <si>
+    <t>luci.ju.al.03@gmail.com</t>
+  </si>
+  <si>
+    <t>Maria Guadalupe</t>
+  </si>
+  <si>
+    <t>Romo Padilla</t>
+  </si>
+  <si>
+    <t>lupitaromo_2012@hotmail.com</t>
+  </si>
+  <si>
+    <t>Miguel</t>
+  </si>
+  <si>
+    <t>Vazquez Cervantes</t>
+  </si>
+  <si>
+    <t>maria.flore@aguascalientes.gob.mx</t>
+  </si>
+  <si>
+    <t>Norma Angelica</t>
+  </si>
+  <si>
+    <t>Chacon Estrada</t>
+  </si>
+  <si>
+    <t>n-chacon@hotmail.com</t>
+  </si>
+  <si>
+    <t>Jose Alfredo</t>
+  </si>
+  <si>
+    <t>Vital Silva</t>
+  </si>
+  <si>
+    <t>vitaljosealfredo@gmail.com</t>
+  </si>
+  <si>
+    <t>Waldemar</t>
+  </si>
+  <si>
+    <t>waldemarc_ags@yahoo.com.mx</t>
+  </si>
+  <si>
+    <t>Wendy Fabiola</t>
+  </si>
+  <si>
+    <t>Almanza Rodriguez</t>
+  </si>
+  <si>
+    <t>wendy.almanza@aguascalientes.gob.mx</t>
+  </si>
+  <si>
+    <t>Evelio</t>
+  </si>
+  <si>
+    <t>PEREZ BALCAZAR</t>
+  </si>
+  <si>
+    <t>balcazar_perez@hotmail.com</t>
+  </si>
+  <si>
+    <t>Tabasco</t>
+  </si>
+  <si>
+    <t>Cándido</t>
+  </si>
+  <si>
+    <t>MAY ALEJANDRO</t>
+  </si>
+  <si>
+    <t>candimay_6@hotmail.com</t>
+  </si>
+  <si>
+    <t>Felipe</t>
+  </si>
+  <si>
+    <t>Carrillo Alejandro</t>
+  </si>
+  <si>
+    <t>felipecarrilloalejandro@gmail.com</t>
+  </si>
+  <si>
+    <t>Fernando</t>
+  </si>
+  <si>
+    <t>Alvarado Suárez</t>
+  </si>
+  <si>
+    <t>fer_alv_sua@hotmail.com</t>
+  </si>
+  <si>
+    <t>Horlando</t>
+  </si>
+  <si>
+    <t>Hernández Vargas</t>
+  </si>
+  <si>
+    <t>vargasorlando1980@outlook.es</t>
+  </si>
+  <si>
+    <t>José</t>
+  </si>
+  <si>
+    <t>Brito Mayo</t>
+  </si>
+  <si>
+    <t>josebritomayo@hotmail.com</t>
+  </si>
+  <si>
+    <t>José Jesús</t>
+  </si>
+  <si>
+    <t>GARCIA DE LA CRUZ</t>
+  </si>
+  <si>
+    <t>josej_1964@hotmail.com</t>
+  </si>
+  <si>
+    <t>Juan Manuel</t>
+  </si>
+  <si>
+    <t>Ricardez de la Cruz</t>
+  </si>
+  <si>
+    <t>juanmanuelricardezdelacruz@gmail.com</t>
+  </si>
+  <si>
+    <t>Isidro</t>
+  </si>
+  <si>
+    <t>Guillén López</t>
+  </si>
+  <si>
+    <t>licisidroguillen8@gmail.com</t>
+  </si>
+  <si>
+    <t>Josías</t>
+  </si>
+  <si>
+    <t>Arcos Pozo</t>
+  </si>
+  <si>
+    <t>pozojosias@gmail.com</t>
+  </si>
+  <si>
+    <t>Rafael</t>
+  </si>
+  <si>
+    <t>Collado Gómez</t>
+  </si>
+  <si>
+    <t>rafacolladog20@gmail.com</t>
+  </si>
+  <si>
+    <t>Rene</t>
+  </si>
+  <si>
+    <t>Manuel Jiménez</t>
+  </si>
+  <si>
+    <t>rene_manuel1979@hotmail.com</t>
+  </si>
+  <si>
+    <t>Francisco</t>
+  </si>
+  <si>
+    <t>RICARDEZ OLIVARES</t>
+  </si>
+  <si>
+    <t>ricardez_1964@hotmail.com</t>
+  </si>
+  <si>
+    <t>Rosario</t>
+  </si>
+  <si>
+    <t>Córdova Graniel</t>
+  </si>
+  <si>
+    <t>grani_35@hotmail.com</t>
+  </si>
+  <si>
+    <t>Sebastian</t>
+  </si>
+  <si>
+    <t>Alejandro Santos</t>
+  </si>
+  <si>
+    <t>sebas.seis@hotmail.com</t>
+  </si>
+  <si>
+    <t>Elodio</t>
+  </si>
+  <si>
+    <t>Sánchez Rodríguez</t>
+  </si>
+  <si>
+    <t>srelodio@outlook.com</t>
+  </si>
+  <si>
+    <t>Fredy Lugo</t>
+  </si>
+  <si>
+    <t>tatyfrida@hotmail.com</t>
+  </si>
+  <si>
+    <t>Candelario</t>
+  </si>
+  <si>
+    <t>Vidal Méndez</t>
+  </si>
+  <si>
+    <t>vidal03menca@gmail.com</t>
+  </si>
+  <si>
+    <t>Maria del Rocio</t>
+  </si>
+  <si>
+    <t>Jimenez Hernandez</t>
+  </si>
+  <si>
+    <t>rjimenez546@gmail.com</t>
+  </si>
+  <si>
+    <t>Jalisco</t>
+  </si>
+  <si>
+    <t>Lourdes Yasmín</t>
+  </si>
+  <si>
+    <t>Cordoba Solano</t>
+  </si>
+  <si>
+    <t>yaesta08@hotmail.com</t>
+  </si>
+  <si>
+    <t>ADRIAN EUSEBIO</t>
+  </si>
+  <si>
+    <t>ROSALES BERMUDEZ</t>
+  </si>
+  <si>
+    <t>adrianrb13@hotmail.com</t>
+  </si>
+  <si>
+    <t>Colima</t>
+  </si>
+  <si>
+    <t>RAMIREZ CONTRERAS</t>
+  </si>
+  <si>
+    <t>alfredo.contrerasr@hotmail.com</t>
+  </si>
+  <si>
+    <t>Luis Alberto</t>
+  </si>
+  <si>
+    <t>ALVAREZ CASTILLO</t>
+  </si>
+  <si>
+    <t>alvarezluis789@outlook.es</t>
+  </si>
+  <si>
+    <t>Emmanuel</t>
+  </si>
+  <si>
+    <t>VIVEROS RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>eviverosr@hotmail.com</t>
+  </si>
+  <si>
+    <t>Federico</t>
+  </si>
+  <si>
+    <t>LOPEZ PINTO</t>
+  </si>
+  <si>
+    <t>fede_lopez74@hotmail.com</t>
+  </si>
+  <si>
+    <t>Jose Luis</t>
+  </si>
+  <si>
+    <t>GOMEZ JACOBO</t>
+  </si>
+  <si>
+    <t>fugitivos.ssp.col@gmail.com</t>
+  </si>
+  <si>
+    <t>Jorge Gabriel</t>
+  </si>
+  <si>
+    <t>GARCIA AMEZCUA</t>
+  </si>
+  <si>
+    <t>joga.gar@outlook.es</t>
+  </si>
+  <si>
+    <t>Jose Julian</t>
+  </si>
+  <si>
+    <t>LOPEZ MARTINEZ</t>
+  </si>
+  <si>
+    <t>july_sambada@hotmail.com</t>
+  </si>
+  <si>
+    <t>ANGEL</t>
+  </si>
+  <si>
+    <t>LANDA FLORES</t>
+  </si>
+  <si>
+    <t>landaa138@gmail.com</t>
+  </si>
+  <si>
+    <t>Luis</t>
+  </si>
+  <si>
+    <t>ORTIZ MARTINEZ</t>
+  </si>
+  <si>
+    <t>luis_ortizmartinez75@outlook.es</t>
+  </si>
+  <si>
+    <t>Miguel Angel</t>
+  </si>
+  <si>
+    <t>HUERTA NAVARRO</t>
+  </si>
+  <si>
+    <t>mh1huerta@gmail.com</t>
+  </si>
+  <si>
+    <t>Nazdira Noemi</t>
+  </si>
+  <si>
+    <t>GUZMAN GAYTAN</t>
+  </si>
+  <si>
+    <t>nazzdyy@gmail.com</t>
+  </si>
+  <si>
+    <t>Lina Coral</t>
+  </si>
+  <si>
+    <t>MARTINEZ DELGADILLO</t>
+  </si>
+  <si>
+    <t>neftali_27@hotmail.com</t>
+  </si>
+  <si>
+    <t>Ignacio</t>
+  </si>
+  <si>
+    <t>PEREZ VAZQUEZ</t>
+  </si>
+  <si>
+    <t>perevai@outlook.es</t>
+  </si>
+  <si>
+    <t>FILIBERTO</t>
+  </si>
+  <si>
+    <t>RAMOS BRAMBILA</t>
+  </si>
+  <si>
+    <t>ramos_bf@hotmail.com</t>
+  </si>
+  <si>
+    <t>Raul</t>
+  </si>
+  <si>
+    <t>ROJAS CARRILLO</t>
+  </si>
+  <si>
+    <t>raul.-rojas-carrillo@outlook.es</t>
+  </si>
+  <si>
+    <t>ANDRES</t>
+  </si>
+  <si>
+    <t>REYES UREÑA</t>
+  </si>
+  <si>
+    <t>reyes.-andres@outlook.es</t>
+  </si>
+  <si>
+    <t>Timoteo</t>
+  </si>
+  <si>
+    <t>REYES GONZALEZ</t>
+  </si>
+  <si>
+    <t>reyestimo2017@gmail.com</t>
+  </si>
+  <si>
+    <t>RUBEN ANTONIO</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>rubenrr1901@gmail.com</t>
+  </si>
+  <si>
+    <t>SAUL</t>
+  </si>
+  <si>
+    <t>FAVILA DE AVILA</t>
+  </si>
+  <si>
+    <t>saul_f_@outlook.es</t>
+  </si>
+  <si>
+    <t>Jorge Omar</t>
+  </si>
+  <si>
+    <t>ALVAREZ LUNA</t>
+  </si>
+  <si>
+    <t>ssoperativa@hotmail.com</t>
+  </si>
+  <si>
+    <t>Mario Enrique</t>
+  </si>
+  <si>
+    <t>TAPIA CASTRO</t>
+  </si>
+  <si>
+    <t>tapia.-castro@hotmail.com</t>
+  </si>
+  <si>
+    <t>Oscar Javier</t>
+  </si>
+  <si>
+    <t>VARGAS ORDORICA</t>
+  </si>
+  <si>
+    <t>vargas_javier_ord@outlook.es</t>
+  </si>
+  <si>
+    <t>ALEJANDRO</t>
+  </si>
+  <si>
+    <t>CAMPOS CRUZ</t>
+  </si>
+  <si>
+    <t>alejandrocamposcruz@gmail.com</t>
+  </si>
+  <si>
+    <t>Ciudad de México</t>
+  </si>
+  <si>
+    <t>ARMANDO</t>
+  </si>
+  <si>
+    <t>OMAÑA CAÑETE</t>
+  </si>
+  <si>
+    <t>alfataxque.a1@gmail.com</t>
+  </si>
+  <si>
+    <t>MANUEL</t>
+  </si>
+  <si>
+    <t>BRAVO VALENCIA</t>
+  </si>
+  <si>
+    <t>bravo69_17@hotmail.com</t>
+  </si>
+  <si>
+    <t>CARLOS MARTIN</t>
+  </si>
+  <si>
+    <t>HERRERA BERMUDEZ</t>
+  </si>
+  <si>
+    <t>carlosmartinherrera7@gmail.com</t>
+  </si>
+  <si>
+    <t>CARLOS JIBSAM</t>
+  </si>
+  <si>
+    <t>CRUZ RANGEL</t>
+  </si>
+  <si>
+    <t>carls777@msn.com</t>
+  </si>
+  <si>
+    <t>DAVID</t>
+  </si>
+  <si>
+    <t>GONZALEZ HIRINEO</t>
+  </si>
+  <si>
+    <t>davidhirineo@gmail.com</t>
+  </si>
+  <si>
+    <t>ENRIQUE</t>
+  </si>
+  <si>
+    <t>GUTIERREZ ALONSO</t>
+  </si>
+  <si>
+    <t>dgzccentrocorredor@gmail.com</t>
+  </si>
+  <si>
+    <t>GUILLERMO</t>
+  </si>
+  <si>
+    <t>MARTINEZ BONOLA</t>
+  </si>
+  <si>
+    <t>gmarbon@yahoo.com.mx</t>
+  </si>
+  <si>
+    <t>Giovanni</t>
+  </si>
+  <si>
+    <t>Osnaya Planas</t>
+  </si>
+  <si>
+    <t>gosnayita26@gmail.com</t>
+  </si>
+  <si>
+    <t>JUAN ANTONIO</t>
+  </si>
+  <si>
+    <t>BAUTISTA GARCIA</t>
+  </si>
+  <si>
+    <t>jagarcia231189@gmail.com</t>
+  </si>
+  <si>
+    <t>JAVIER</t>
+  </si>
+  <si>
+    <t>SANTIAGO MENDOZA</t>
+  </si>
+  <si>
+    <t>javier_sm21@hotmail.com</t>
+  </si>
+  <si>
+    <t>OROZCO GREGORIO</t>
+  </si>
+  <si>
+    <t>javierorozco26@hotmail.com</t>
+  </si>
+  <si>
+    <t>JUAN CARLOS</t>
+  </si>
+  <si>
+    <t>CAMPOS PRADO</t>
+  </si>
+  <si>
+    <t>jccpgama21@gmail.com</t>
+  </si>
+  <si>
+    <t>JOANA GRACIELA</t>
+  </si>
+  <si>
+    <t>VENTURA MARTINEZ</t>
+  </si>
+  <si>
+    <t>joana42829@gmail.com</t>
+  </si>
+  <si>
+    <t>JAIME</t>
+  </si>
+  <si>
+    <t>ROSALES RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>kingblackandwhite@hotmail.com</t>
+  </si>
+  <si>
+    <t>JESUS ROBERTO</t>
+  </si>
+  <si>
+    <t>FERNANDEZ MIRANDA</t>
+  </si>
+  <si>
+    <t>licrimj@hotmail.com</t>
+  </si>
+  <si>
+    <t>Luis José</t>
+  </si>
+  <si>
+    <t>Ramirez Perez</t>
+  </si>
+  <si>
+    <t>luisjoser00@gmail.com</t>
+  </si>
+  <si>
+    <t>SONIA</t>
+  </si>
+  <si>
+    <t>MONROY GUZMAN</t>
+  </si>
+  <si>
+    <t>monris473@gmail.com</t>
+  </si>
+  <si>
+    <t>PEDRO SERAFIN</t>
+  </si>
+  <si>
+    <t>MONTAÑO MEJIA</t>
+  </si>
+  <si>
+    <t>montanio684@gmail.com</t>
+  </si>
+  <si>
+    <t>DAVID ALBERTO</t>
+  </si>
+  <si>
+    <t>CRUZ MARTINEZ</t>
+  </si>
+  <si>
+    <t>polancosector@yahoo.com</t>
+  </si>
+  <si>
+    <t>RODOLFO</t>
+  </si>
+  <si>
+    <t>DIEGO ORTEGA</t>
+  </si>
+  <si>
+    <t>rodolfodiegoortega@yahoo.es</t>
+  </si>
+  <si>
+    <t>SILVA HERNANDEZ</t>
+  </si>
+  <si>
+    <t>silvacarl04@hotmail.com</t>
+  </si>
+  <si>
+    <t>JULIO CESAR</t>
+  </si>
+  <si>
+    <t>MENDEZ RINCON</t>
+  </si>
+  <si>
+    <t>sipfuente@hotmail.com</t>
+  </si>
+  <si>
+    <t>SALVADOR</t>
+  </si>
+  <si>
+    <t>CAMARGO BALTAZAR</t>
+  </si>
+  <si>
+    <t>upmrelampago@gmail.com</t>
+  </si>
+  <si>
+    <t>GABRIELA ABRIL</t>
+  </si>
+  <si>
+    <t>LOPEZ SOSA</t>
+  </si>
+  <si>
+    <t>a11libra@hotmail.com</t>
+  </si>
+  <si>
+    <t>Baja California</t>
+  </si>
+  <si>
+    <t>IYARI ROBERTO</t>
+  </si>
+  <si>
+    <t>MENDOZA LUGO</t>
+  </si>
+  <si>
+    <t>albinonegroo@gmail.com</t>
+  </si>
+  <si>
+    <t>OBED ERNESTO</t>
+  </si>
+  <si>
+    <t>CORDERO CONTRERAS</t>
+  </si>
+  <si>
+    <t>cimarron2704@gmail.com</t>
+  </si>
+  <si>
+    <t>FRANCISCO SIMON</t>
+  </si>
+  <si>
+    <t>RIVERA ROJAS</t>
+  </si>
+  <si>
+    <t>fsrivera@c4bc.gob.mx</t>
+  </si>
+  <si>
+    <t>MEDINA MACIAS</t>
+  </si>
+  <si>
+    <t>gamac162@gmail.com</t>
+  </si>
+  <si>
+    <t>ARMANDO MANUEL</t>
+  </si>
+  <si>
+    <t>VEGA GONZALEZ</t>
+  </si>
+  <si>
+    <t>halconblancox@gmail.com</t>
+  </si>
+  <si>
+    <t>LILIA</t>
+  </si>
+  <si>
+    <t>IBARRA AGUILERA</t>
+  </si>
+  <si>
+    <t>Ibarralilia06@gmail.com</t>
+  </si>
+  <si>
+    <t>CARLOS ALBERTO</t>
+  </si>
+  <si>
+    <t>ADAME CAMACHO</t>
+  </si>
+  <si>
+    <t>lic.carlosadame@gmail.com</t>
+  </si>
+  <si>
+    <t>MARIO ENRIQUE</t>
+  </si>
+  <si>
+    <t>MONTOYA ESPINOZA</t>
+  </si>
+  <si>
+    <t>memontoya@c4bc.gob.mx</t>
+  </si>
+  <si>
+    <t>MEILY</t>
+  </si>
+  <si>
+    <t>SALAZAR CHAVEZ</t>
+  </si>
+  <si>
+    <t>msalazar@c4bc.gob.mx</t>
+  </si>
+  <si>
+    <t>OLGA KARINA</t>
+  </si>
+  <si>
+    <t>VENEGAS BURGOS</t>
+  </si>
+  <si>
+    <t>ovenegas2123@gmail.com</t>
+  </si>
+  <si>
+    <t>RAFAEL</t>
+  </si>
+  <si>
+    <t>CORONA BAÑUELOS</t>
+  </si>
+  <si>
+    <t>rcorona06@hotmail.com</t>
+  </si>
+  <si>
+    <t>RICARDO</t>
+  </si>
+  <si>
+    <t>RUIZ LOPEZ</t>
+  </si>
+  <si>
+    <t>ruiz_28@hotmail.com</t>
+  </si>
+  <si>
+    <t>Jaime Othoniel</t>
+  </si>
+  <si>
+    <t>Barron Valdez</t>
+  </si>
+  <si>
+    <t>jaime_bar30@hotmail.com</t>
+  </si>
+  <si>
+    <t>Sinaloa</t>
+  </si>
+  <si>
+    <t>Jesus Alberto</t>
+  </si>
+  <si>
+    <t>Machado Armienta</t>
+  </si>
+  <si>
+    <t>jesusmachado@sinaloa.gob.mx</t>
+  </si>
+  <si>
+    <t>Jorge Alberto</t>
+  </si>
+  <si>
+    <t>Garcia Lechuga</t>
+  </si>
+  <si>
+    <t>jorge.albertogl@outlook.es</t>
+  </si>
+  <si>
+    <t>Briseida</t>
+  </si>
+  <si>
+    <t>Franco Monarrez</t>
+  </si>
+  <si>
+    <t>lic_briseida@hotmail.com</t>
+  </si>
+  <si>
+    <t>Manuel</t>
+  </si>
+  <si>
+    <t>Beltran Diaz</t>
+  </si>
+  <si>
+    <t>nex_17@hotmail.com</t>
+  </si>
+  <si>
+    <t>Alfredo</t>
+  </si>
+  <si>
+    <t>Sanchez de la Paz</t>
+  </si>
+  <si>
+    <t>alfredosp@ciencias.unam.mx</t>
+  </si>
+  <si>
+    <t>Morelos</t>
+  </si>
+  <si>
+    <t>Alma Delia</t>
+  </si>
+  <si>
+    <t>DOMINGUEZ AGUILAR</t>
+  </si>
+  <si>
+    <t>alma.dda@gmail.com</t>
+  </si>
+  <si>
+    <t>Pedro</t>
+  </si>
+  <si>
+    <t>Catalan Catalan</t>
+  </si>
+  <si>
+    <t>cataleya0044@hotmail.com</t>
+  </si>
+  <si>
+    <t>Eduardo</t>
+  </si>
+  <si>
+    <t>JAIMES ESTRADA</t>
+  </si>
+  <si>
+    <t>eduar_estrada1423@hotmail.com</t>
+  </si>
+  <si>
+    <t>Ocampo Gonzalez</t>
+  </si>
+  <si>
+    <t>eduardoocampo1989@gmail.com</t>
+  </si>
+  <si>
+    <t>Eloisa</t>
+  </si>
+  <si>
+    <t>ENRIQUEZ CASIQUE</t>
+  </si>
+  <si>
+    <t>elocasique79@hotmail.com</t>
+  </si>
+  <si>
+    <t>Angel Jhonatan</t>
+  </si>
+  <si>
+    <t>Garcia Aguilar</t>
+  </si>
+  <si>
+    <t>garciaangel1992@hotmail.com</t>
+  </si>
+  <si>
+    <t>Humberto</t>
+  </si>
+  <si>
+    <t>DE LA SANCHA GUTIERREZ</t>
+  </si>
+  <si>
+    <t>hsg61@hotmail.com</t>
+  </si>
+  <si>
+    <t>Roberto Carlos</t>
+  </si>
+  <si>
+    <t>CORONA TAFOLLA</t>
+  </si>
+  <si>
+    <t>itzroberto3@gmail.com</t>
+  </si>
+  <si>
+    <t>Angelica</t>
+  </si>
+  <si>
+    <t>JARAMILLO LIMA</t>
+  </si>
+  <si>
+    <t>jaramillo_lima@hotmail.com</t>
+  </si>
+  <si>
+    <t>Jonathan</t>
+  </si>
+  <si>
+    <t>Cortez Huerta</t>
+  </si>
+  <si>
+    <t>jonnycortezhuerta@gmail.com</t>
+  </si>
+  <si>
+    <t>Julian Ruben</t>
+  </si>
+  <si>
+    <t>Castañeda Tavarez</t>
+  </si>
+  <si>
+    <t>jrc.tavarez@outlook.com</t>
+  </si>
+  <si>
+    <t>JESUS SERGIO</t>
+  </si>
+  <si>
+    <t>LUQUIN REY</t>
+  </si>
+  <si>
+    <t>j.sergioluquin@gmail.com</t>
+  </si>
+  <si>
+    <t>Lauro Jesus</t>
+  </si>
+  <si>
+    <t>Flores Cuate</t>
+  </si>
+  <si>
+    <t>l.j.flores@outlook.com</t>
+  </si>
+  <si>
+    <t>Maria Elena</t>
+  </si>
+  <si>
+    <t>GONZALEZ LUEVANOS</t>
+  </si>
+  <si>
+    <t>luevanos.el@gmail.com</t>
+  </si>
+  <si>
+    <t>Ernesto</t>
+  </si>
+  <si>
+    <t>SALAZAR CARDONA</t>
+  </si>
+  <si>
+    <t>macpil_0@hotmail.com</t>
+  </si>
+  <si>
+    <t>Roberto Antonio</t>
+  </si>
+  <si>
+    <t>Bravo Padilla</t>
+  </si>
+  <si>
+    <t>rabp_2014@outlook.com</t>
+  </si>
+  <si>
+    <t>JOB JONHATAN</t>
+  </si>
+  <si>
+    <t>ROJAS FUENTES</t>
+  </si>
+  <si>
+    <t>sowsrojas@gmail.com</t>
+  </si>
+  <si>
+    <t>FAUSTINO</t>
+  </si>
+  <si>
+    <t>CALDERON ANTUNEZ</t>
+  </si>
+  <si>
+    <t>tino150486@gmail.com</t>
+  </si>
+  <si>
+    <t>Willians</t>
+  </si>
+  <si>
+    <t>De La Sancha Ocampo</t>
+  </si>
+  <si>
+    <t>williansdelas@hotmail.com</t>
+  </si>
+  <si>
+    <t>Cesar</t>
+  </si>
+  <si>
+    <t>AGUILAR GUEVARA</t>
+  </si>
+  <si>
+    <t>aguilarguevara99@gmail.com</t>
+  </si>
+  <si>
+    <t>Nuevo León</t>
+  </si>
+  <si>
+    <t>ALBERTO</t>
+  </si>
+  <si>
+    <t>MOCTEZUMA BISNES</t>
+  </si>
+  <si>
+    <t>albemoc@gmail.com</t>
+  </si>
+  <si>
+    <t>EDGAR ISAAC</t>
+  </si>
+  <si>
+    <t>APARICIO GALVAN</t>
+  </si>
+  <si>
+    <t>apa-edgar@hotmail.com</t>
+  </si>
+  <si>
+    <t>JUAN ARMANDO</t>
+  </si>
+  <si>
+    <t>PEREZ ALVAREZ</t>
+  </si>
+  <si>
+    <t>armando_1158@hotmail.com</t>
+  </si>
+  <si>
+    <t>BALDEMAR</t>
+  </si>
+  <si>
+    <t>ARADILLAS PÉREZ</t>
+  </si>
+  <si>
+    <t>baldemar.aradillas@nuevoleon.gob.mx</t>
+  </si>
+  <si>
+    <t>DIEGO DE JESUS</t>
+  </si>
+  <si>
+    <t>MAR SOSA</t>
+  </si>
+  <si>
+    <t>djmarsosa@gmail.com</t>
+  </si>
+  <si>
+    <t>EDGAR</t>
+  </si>
+  <si>
+    <t>AGUILAR ROSAS</t>
+  </si>
+  <si>
+    <t>edgarin_121@hotmail.com</t>
+  </si>
+  <si>
+    <t>EMMANUEL</t>
+  </si>
+  <si>
+    <t>TORAL SALDAÑA</t>
+  </si>
+  <si>
+    <t>emmanuel.toral@nuevoleon.gob.mx</t>
+  </si>
+  <si>
+    <t>GUILLERMO JOSUE</t>
+  </si>
+  <si>
+    <t>LABASTIDA GONZALEZ</t>
+  </si>
+  <si>
+    <t>glabastidag@gmail.com</t>
+  </si>
+  <si>
+    <t>MARA</t>
+  </si>
+  <si>
+    <t>GOMEZ HERNANDEZ</t>
+  </si>
+  <si>
+    <t>gomez_mara87@hotmail.com</t>
+  </si>
+  <si>
+    <t>LEANDRO INES</t>
+  </si>
+  <si>
+    <t>CASTILLO BERRONES</t>
+  </si>
+  <si>
+    <t>ines.castillo01@gmail.com</t>
+  </si>
+  <si>
+    <t>Isaac</t>
+  </si>
+  <si>
+    <t>ESPINOSA DELGADO</t>
+  </si>
+  <si>
+    <t>isaac_esdel@hotmail.com</t>
+  </si>
+  <si>
+    <t>JOSE LUIS</t>
+  </si>
+  <si>
+    <t>ALVAREZ SANCHEZ</t>
+  </si>
+  <si>
+    <t>joseluis.alvarezjlas@gmail.com</t>
+  </si>
+  <si>
+    <t>JOSE MANUEL</t>
+  </si>
+  <si>
+    <t>GOMEZ MORENO</t>
+  </si>
+  <si>
+    <t>josemanuelmty11@hotmail.com</t>
+  </si>
+  <si>
+    <t>JUDITH MERCEDES</t>
+  </si>
+  <si>
+    <t>RAMIREZ LOREDO</t>
+  </si>
+  <si>
+    <t>judith_ramirez_lo@hotmail.com</t>
+  </si>
+  <si>
+    <t>LUCIO</t>
+  </si>
+  <si>
+    <t>DEL ANGEL DEL ANGEL</t>
+  </si>
+  <si>
+    <t>luciodelangel@hotmail.com</t>
+  </si>
+  <si>
+    <t>LUIS ENRIQUE</t>
+  </si>
+  <si>
+    <t>VALDEZ VACA</t>
+  </si>
+  <si>
+    <t>luisvaldezvaca@gmail.com</t>
+  </si>
+  <si>
+    <t>HECTOR FRANCISCO</t>
+  </si>
+  <si>
+    <t>CONTRERAS LUNA</t>
+  </si>
+  <si>
+    <t>luna11_sol13@hotmail.com</t>
+  </si>
+  <si>
+    <t>MARIO ANTONIO</t>
+  </si>
+  <si>
+    <t>BASURTO GARZA</t>
+  </si>
+  <si>
+    <t>marioantonio.basurto@gmail.com</t>
+  </si>
+  <si>
+    <t>JORGE ALBERTO</t>
+  </si>
+  <si>
+    <t>CARRILLO CARDENAS</t>
+  </si>
+  <si>
+    <t>mediacionlegalcarrillo@gmail.com</t>
+  </si>
+  <si>
+    <t>MIGUEL</t>
+  </si>
+  <si>
+    <t>ESCALANTE MARTINEZ</t>
+  </si>
+  <si>
+    <t>miguelesc_@hotmail.com</t>
+  </si>
+  <si>
+    <t>EMMANUEL ADALBERTO</t>
+  </si>
+  <si>
+    <t>ORTIZ ROJAS</t>
+  </si>
+  <si>
+    <t>ortizparachuta@gmail.com</t>
+  </si>
+  <si>
+    <t>OSCAR DANIEL</t>
+  </si>
+  <si>
+    <t>GONZALEZ NAVARRO</t>
+  </si>
+  <si>
+    <t>oscar.357d@gmail.com</t>
+  </si>
+  <si>
+    <t>HERNANDEZ TEJEDA</t>
+  </si>
+  <si>
+    <t>rafael.hernandez@nuevoleon.gob.mx</t>
+  </si>
+  <si>
+    <t>ANA RAQUEL</t>
+  </si>
+  <si>
+    <t>HERNANDEZ PUENTE</t>
+  </si>
+  <si>
+    <t>raquelpet_19@hotmail.com</t>
+  </si>
+  <si>
+    <t>RAUL</t>
+  </si>
+  <si>
+    <t>LOPEZ SUAREZ</t>
+  </si>
+  <si>
+    <t>raullopez1576@gmail.com</t>
+  </si>
+  <si>
+    <t>NESTOR ANTONIO</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ GARZA</t>
+  </si>
+  <si>
+    <t>rdz.nestor86@gmail.com</t>
+  </si>
+  <si>
+    <t>GONZALEZ FREIRES</t>
+  </si>
+  <si>
+    <t>ricardofreyres620918@gmail.com</t>
+  </si>
+  <si>
+    <t>BRIGIDO</t>
+  </si>
+  <si>
+    <t>JAUREGUI MORENO</t>
+  </si>
+  <si>
+    <t>vikes.jauregui@hotmail.com</t>
+  </si>
+  <si>
+    <t>PEDRO LUIS</t>
+  </si>
+  <si>
+    <t>ROCHA CRUZ</t>
+  </si>
+  <si>
+    <t>acuario.4@hotmail.com</t>
+  </si>
+  <si>
+    <t>San Luis Potosí</t>
+  </si>
+  <si>
+    <t>Alejandro</t>
+  </si>
+  <si>
+    <t>SALAZAR FRAGA</t>
+  </si>
+  <si>
+    <t>alejsalazar123@gmail.com</t>
+  </si>
+  <si>
+    <t>BONIFACIO</t>
+  </si>
+  <si>
+    <t>MATA HERNANDEZ</t>
+  </si>
+  <si>
+    <t>bonifaciomatahernandez@hotmail.com</t>
+  </si>
+  <si>
+    <t>JORGE LUIS</t>
+  </si>
+  <si>
+    <t>ROSALES ARRIAGA</t>
+  </si>
+  <si>
+    <t>bronco_rus76@hotmail.com</t>
+  </si>
+  <si>
+    <t>EDGAR RAFAEL</t>
+  </si>
+  <si>
+    <t>ESCOBEDO MARTINEZ</t>
+  </si>
+  <si>
+    <t>brusguiris@hotmail.com</t>
+  </si>
+  <si>
+    <t>JORGE</t>
+  </si>
+  <si>
+    <t>CERINO RUIZ</t>
+  </si>
+  <si>
+    <t>cerjlivecommx@gmail.com</t>
+  </si>
+  <si>
+    <t>José Gerardo</t>
+  </si>
+  <si>
+    <t>NIÑO RAMÍREZ</t>
+  </si>
+  <si>
+    <t>ninog6873@gmail.com</t>
+  </si>
+  <si>
+    <t>Gerardo</t>
+  </si>
+  <si>
+    <t>LÓPEZ VELÁZQUEZ</t>
+  </si>
+  <si>
+    <t>geras-lopez@outlook.com</t>
+  </si>
+  <si>
+    <t>Gonzalo</t>
+  </si>
+  <si>
+    <t>NAVA PORTALES</t>
+  </si>
+  <si>
+    <t>gnava181@gmail.com</t>
+  </si>
+  <si>
+    <t>Porfirio Gerardo</t>
+  </si>
+  <si>
+    <t>VALADEZ LÓPEZ</t>
+  </si>
+  <si>
+    <t>gvaladez1969@hotmail.com</t>
+  </si>
+  <si>
+    <t>HECTOR</t>
+  </si>
+  <si>
+    <t>ESQUEDA GARCIA</t>
+  </si>
+  <si>
+    <t>hectoresqueda45@outlook.com</t>
+  </si>
+  <si>
+    <t>HUGO CÉSAR</t>
+  </si>
+  <si>
+    <t>BELTRÁN CASTRO</t>
+  </si>
+  <si>
+    <t>beltranhugo394@gmail.com</t>
+  </si>
+  <si>
+    <t>JOSE ANGEL</t>
+  </si>
+  <si>
+    <t>AVALOS CERVANTES</t>
+  </si>
+  <si>
+    <t>ja.avalos.cervantes@gmail.com</t>
+  </si>
+  <si>
+    <t>JUVENAL</t>
+  </si>
+  <si>
+    <t>GARAY SILVA</t>
+  </si>
+  <si>
+    <t>Juvenal14_azul@hotmail.com</t>
+  </si>
+  <si>
+    <t>José Manuel</t>
+  </si>
+  <si>
+    <t>MARTÍNEZ VILLEGAS</t>
+  </si>
+  <si>
+    <t>manuelvillegaspc@gmail.com</t>
+  </si>
+  <si>
+    <t>MEZA COLORADO</t>
+  </si>
+  <si>
+    <t>mezacolorado@hotmail.com</t>
+  </si>
+  <si>
+    <t>J. Carmen</t>
+  </si>
+  <si>
+    <t>RÍOS ROCHA</t>
+  </si>
+  <si>
+    <t>Prismak75@gmail.com</t>
+  </si>
+  <si>
+    <t>ALEJANDRA</t>
+  </si>
+  <si>
+    <t>MENDEZ MANZANO</t>
+  </si>
+  <si>
+    <t>alemendez_manzano@live.com.mx</t>
+  </si>
+  <si>
+    <t>Guanajuato</t>
+  </si>
+  <si>
+    <t>AVILA HERNANDEZ</t>
+  </si>
+  <si>
+    <t>armandoavilahdz@gmail.com</t>
+  </si>
+  <si>
+    <t>BENJAMIN</t>
+  </si>
+  <si>
+    <t>BAUTISTA ROMERO</t>
+  </si>
+  <si>
+    <t>benja24julio@gmail.com</t>
+  </si>
+  <si>
+    <t>Bernabe</t>
+  </si>
+  <si>
+    <t>UBALLE ORNELAS</t>
+  </si>
+  <si>
+    <t>buballeo@guanajuato.gob.mx</t>
+  </si>
+  <si>
+    <t>CORTES</t>
+  </si>
+  <si>
+    <t>cortesaterrestre_beba@hotmail.com</t>
+  </si>
+  <si>
+    <t>Daniel Eduardo</t>
+  </si>
+  <si>
+    <t>ESCOBAR GAYTAN</t>
+  </si>
+  <si>
+    <t>descobargaytan@gmail.com</t>
+  </si>
+  <si>
+    <t>Eduardo Javier</t>
+  </si>
+  <si>
+    <t>CISNEROS RANGEL</t>
+  </si>
+  <si>
+    <t>eduardocisneros888@gmail.com</t>
+  </si>
+  <si>
+    <t>MARTINEZ BRAVO</t>
+  </si>
+  <si>
+    <t>ernestobravo18@hotmail.com</t>
+  </si>
+  <si>
+    <t>FABIOLA</t>
+  </si>
+  <si>
+    <t>HERNANDEZ RAMIREZ</t>
+  </si>
+  <si>
+    <t>faby_jsm@hotmail.com</t>
+  </si>
+  <si>
+    <t>José Florencio</t>
+  </si>
+  <si>
+    <t>VALDEZ SANCHEZ</t>
+  </si>
+  <si>
+    <t>floresgum@hotmail.com</t>
+  </si>
+  <si>
+    <t>ABRAHAM</t>
+  </si>
+  <si>
+    <t>GARCIA GARCIA</t>
+  </si>
+  <si>
+    <t>gagabram@hotmail.com</t>
+  </si>
+  <si>
+    <t>GAUDENCIO</t>
+  </si>
+  <si>
+    <t>IBARRA MARES</t>
+  </si>
+  <si>
+    <t>gauibarra@hotmail.com</t>
+  </si>
+  <si>
+    <t>MARTIN</t>
+  </si>
+  <si>
+    <t>BEDOLLA ZAVALA</t>
+  </si>
+  <si>
+    <t>gdg_nostik@hotmail.com</t>
+  </si>
+  <si>
+    <t>HERIBERTO</t>
+  </si>
+  <si>
+    <t>SANCHEZ VALDEZ</t>
+  </si>
+  <si>
+    <t>hsv4480@gmail.com</t>
+  </si>
+  <si>
+    <t>HUMBERTO</t>
+  </si>
+  <si>
+    <t>TORRES PESCADOR</t>
+  </si>
+  <si>
+    <t>htorresp@guanajuato.gob.mx</t>
+  </si>
+  <si>
+    <t>JOSE</t>
+  </si>
+  <si>
+    <t>ALCOCER RAZO</t>
+  </si>
+  <si>
+    <t>jalcocerr@guanajuato.gob.mx</t>
+  </si>
+  <si>
+    <t>JOSE ALEJANDRO</t>
+  </si>
+  <si>
+    <t>BERNABE BRITO</t>
+  </si>
+  <si>
+    <t>jbernabeb@guanajuato.gob.mx</t>
+  </si>
+  <si>
+    <t>JOSE ALBERTO</t>
+  </si>
+  <si>
+    <t>SERRANO CHAVEZ</t>
+  </si>
+  <si>
+    <t>jbetojasch.jas@gmail.com</t>
+  </si>
+  <si>
+    <t>JUAN DANIEL</t>
+  </si>
+  <si>
+    <t>RIVERA AGUILERA</t>
+  </si>
+  <si>
+    <t>jdriveraa@guanajuato.gob.mx</t>
+  </si>
+  <si>
+    <t>J. Jesús</t>
+  </si>
+  <si>
+    <t>ACOSTA RAMIREZ</t>
+  </si>
+  <si>
+    <t>jesus18610@hotmail.com</t>
+  </si>
+  <si>
+    <t>JUAN GABRIEL</t>
+  </si>
+  <si>
+    <t>CHAVEZ DOMINGUEZ</t>
+  </si>
+  <si>
+    <t>jgchavezd@guanajuato.gob.mx</t>
+  </si>
+  <si>
+    <t>JARAMILLO GONZALEZ</t>
+  </si>
+  <si>
+    <t>jjaramillog@guanajuato.gob.mx</t>
+  </si>
+  <si>
+    <t>José Miguel</t>
+  </si>
+  <si>
+    <t>JUAREZ RAMIREZ</t>
+  </si>
+  <si>
+    <t>jjuarezr@guanajuato.gob.mx</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ SANTIBAÑEZ</t>
+  </si>
+  <si>
+    <t>jrodriguezsa@guanajuato.gob.mx</t>
+  </si>
+  <si>
+    <t>SANDOVAL PALACIOS</t>
+  </si>
+  <si>
+    <t>jsp100286@gmail.com</t>
+  </si>
+  <si>
+    <t>JOSE SILVERIO</t>
+  </si>
+  <si>
+    <t>TAPIA SALDANA</t>
+  </si>
+  <si>
+    <t>jtapias@guanajuato.gob.mx</t>
+  </si>
+  <si>
+    <t>Omar Josue</t>
+  </si>
+  <si>
+    <t>MORENO BARBOZA</t>
+  </si>
+  <si>
+    <t>lic.josue16@hotmail.com</t>
+  </si>
+  <si>
+    <t>MIGUEL ANGEL</t>
+  </si>
+  <si>
+    <t>CHAVEZ ROCHA</t>
+  </si>
+  <si>
+    <t>machavezr@guanajuato.gob.mx</t>
+  </si>
+  <si>
+    <t>Teodoro</t>
+  </si>
+  <si>
+    <t>LUNA RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>machosteo@hotmail.com</t>
+  </si>
+  <si>
+    <t>MARIO ALBERTO</t>
+  </si>
+  <si>
+    <t>GONZALEZ SALAZAR</t>
+  </si>
+  <si>
+    <t>magonzalezsa@guanuato.gob.mx</t>
+  </si>
+  <si>
+    <t>LAURA ELVIRA</t>
+  </si>
+  <si>
+    <t>MEDINA FRAUSTO</t>
+  </si>
+  <si>
+    <t>medina_fralau@hotmail.com</t>
+  </si>
+  <si>
+    <t>Margarita</t>
+  </si>
+  <si>
+    <t>GARCÍA RODRÍGUEZ</t>
+  </si>
+  <si>
+    <t>mgr840226@hotmail.com</t>
+  </si>
+  <si>
+    <t>TORRES DURAN</t>
+  </si>
+  <si>
+    <t>mtorresd@guanajuato.gob.mx</t>
+  </si>
+  <si>
+    <t>NAYELY RUBI</t>
+  </si>
+  <si>
+    <t>VALDEZ CAUDILLO</t>
+  </si>
+  <si>
+    <t>nely_by@hotmail.com</t>
+  </si>
+  <si>
+    <t>NOE</t>
+  </si>
+  <si>
+    <t>LUNA MARTINEZ</t>
+  </si>
+  <si>
+    <t>nlunam@guanajuato.gob.mx</t>
+  </si>
+  <si>
+    <t>OSVALDO</t>
+  </si>
+  <si>
+    <t>CHAVEZ BERMUDEZ</t>
+  </si>
+  <si>
+    <t>ochavezbe@guanajuato.gob.mx</t>
+  </si>
+  <si>
+    <t>JOSE CRUZ</t>
+  </si>
+  <si>
+    <t>OLMOS DIAZ</t>
+  </si>
+  <si>
+    <t>olmos.cruzd@gmail.com</t>
+  </si>
+  <si>
+    <t>JOSE DE JESUS</t>
+  </si>
+  <si>
+    <t>PEREZ ARANDA</t>
+  </si>
+  <si>
+    <t>pperezaranda@gmail.com</t>
+  </si>
+  <si>
+    <t>RAZO JIMENEZ</t>
+  </si>
+  <si>
+    <t>razo_richard@hotmail.com</t>
+  </si>
+  <si>
+    <t>CASTAÑEDA AMEZCUA</t>
+  </si>
+  <si>
+    <t>scastanedaa@guanajuato.gob.mx</t>
+  </si>
+  <si>
+    <t>JOSE JUAN</t>
+  </si>
+  <si>
+    <t>LOPEZ SOLORZANO</t>
+  </si>
+  <si>
+    <t>solorzanopp@gmail.com</t>
+  </si>
+  <si>
+    <t>LUIS</t>
+  </si>
+  <si>
+    <t>GUILLEN GAMEZ</t>
+  </si>
+  <si>
+    <t>titancorp2014@gmail.com</t>
+  </si>
+  <si>
+    <t>JOSE ROBERTO</t>
+  </si>
+  <si>
+    <t>BECERRA RIVERA</t>
+  </si>
+  <si>
+    <t>udidinpol@gmail.com</t>
+  </si>
+  <si>
+    <t>ABEL</t>
+  </si>
+  <si>
+    <t>GONZÁLEZ SÁNCHEZ</t>
+  </si>
+  <si>
+    <t>agonzalezsa@queretaro.gob.mx</t>
+  </si>
+  <si>
+    <t>Querétaro</t>
+  </si>
+  <si>
+    <t>MARTINEZ SANCHEZ</t>
+  </si>
+  <si>
+    <t>amiguitort4@outlook.com</t>
+  </si>
+  <si>
+    <t>RINCON SOLANO</t>
+  </si>
+  <si>
+    <t>arincon@queretaro.gob.mx</t>
+  </si>
+  <si>
+    <t>BRISEÑO FERRUZCA</t>
+  </si>
+  <si>
+    <t>ckober_dnk@hotmail.com</t>
+  </si>
+  <si>
+    <t>Edgar Cesar</t>
+  </si>
+  <si>
+    <t>VILLA OSORNIO</t>
+  </si>
+  <si>
+    <t>cvillao@queretaro.gob.mx</t>
+  </si>
+  <si>
+    <t>JOSÉ LUIS</t>
+  </si>
+  <si>
+    <t>DIAZ DIOSDADO</t>
+  </si>
+  <si>
+    <t>diosdado607@gmail.com</t>
+  </si>
+  <si>
+    <t>ERNESTO ALONSO</t>
+  </si>
+  <si>
+    <t>PERRUSQUIA PÉREZ</t>
+  </si>
+  <si>
+    <t>ernestoperrusquia_6979@hotmail.com</t>
+  </si>
+  <si>
+    <t>GEORGINA</t>
+  </si>
+  <si>
+    <t>CARDENAS RAMIREZ</t>
+  </si>
+  <si>
+    <t>ginna0329@gmail.com</t>
+  </si>
+  <si>
+    <t>MARCO ANTONIO</t>
+  </si>
+  <si>
+    <t>LOPEZ SALAZAR</t>
+  </si>
+  <si>
+    <t>groe4@hotmail.com</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Galvez Rodriguez</t>
+  </si>
+  <si>
+    <t>igalvez@queretaro.gob.mx</t>
+  </si>
+  <si>
+    <t>ISRAEL ZADOC</t>
+  </si>
+  <si>
+    <t>NIEVES ROJO</t>
+  </si>
+  <si>
+    <t>inieves@queretaro.gob.mx</t>
+  </si>
+  <si>
+    <t>ISAAC</t>
+  </si>
+  <si>
+    <t>PÉREZ INFANTE</t>
+  </si>
+  <si>
+    <t>iperez@queretaro.gob.mx</t>
+  </si>
+  <si>
+    <t>JOB</t>
+  </si>
+  <si>
+    <t>HURTADO AGUILLON</t>
+  </si>
+  <si>
+    <t>jobhurtado2@gmail.com</t>
+  </si>
+  <si>
+    <t>VAZQUEZ SANTOS</t>
+  </si>
+  <si>
+    <t>JUAN.CV1406@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>FALCÓN HERNÁNDEZ</t>
+  </si>
+  <si>
+    <t>lfalcon@queretaro.gob.mx</t>
+  </si>
+  <si>
+    <t>LEONARDO</t>
+  </si>
+  <si>
+    <t>FLORES MATA</t>
+  </si>
+  <si>
+    <t>lfloresm@queretaro.gob.mx</t>
+  </si>
+  <si>
+    <t>Campuzano Arreola</t>
+  </si>
+  <si>
+    <t>mcampuzano@queretaro.gob.mx</t>
+  </si>
+  <si>
+    <t>MEDRANO BARRERA</t>
+  </si>
+  <si>
+    <t>medrano27barrera@gmail.com</t>
+  </si>
+  <si>
+    <t>LOPEZ LOPEZ</t>
+  </si>
+  <si>
+    <t>miguel_l_l_@hotmail.com</t>
+  </si>
+  <si>
+    <t>Octavio</t>
+  </si>
+  <si>
+    <t>ISASSI RANGEL</t>
+  </si>
+  <si>
+    <t>octavioisassi@hotmail.com</t>
+  </si>
+  <si>
+    <t>OMAR</t>
+  </si>
+  <si>
+    <t>SOTO OLVERA</t>
+  </si>
+  <si>
+    <t>omar.sool@hotmail.com</t>
+  </si>
+  <si>
+    <t>OSCAR</t>
+  </si>
+  <si>
+    <t>VILLEDA CHAVEZ</t>
+  </si>
+  <si>
+    <t>oskvilcha@hotmail.com</t>
+  </si>
+  <si>
+    <t>Jalpan</t>
+  </si>
+  <si>
+    <t>APOLINAR</t>
+  </si>
+  <si>
+    <t>CAMACHO MARTINEZ</t>
+  </si>
+  <si>
+    <t>polo19691@hotmail.com</t>
+  </si>
+  <si>
+    <t>JOSÉ JUAN</t>
+  </si>
+  <si>
+    <t>CRUZ HERNÁNDEZ</t>
+  </si>
+  <si>
+    <t>ppjuan2306@gmail.com</t>
+  </si>
+  <si>
+    <t>VICTOR</t>
+  </si>
+  <si>
+    <t>RAMIREZ ZUÑIGA</t>
+  </si>
+  <si>
+    <t>region.4.poes@gmail.com</t>
+  </si>
+  <si>
+    <t>RAÚL</t>
+  </si>
+  <si>
+    <t>LEYVA RESENDIZ</t>
+  </si>
+  <si>
+    <t>rleyvar_bfp@yahoo.com.mx</t>
+  </si>
+  <si>
+    <t>TAPIA CASTELANO</t>
+  </si>
+  <si>
+    <t>tapiacastelano@gmail.com</t>
+  </si>
+  <si>
+    <t>VÍCTOR ALONSO</t>
+  </si>
+  <si>
+    <t>AGUAYO ROSALES</t>
+  </si>
+  <si>
+    <t>victor_alonso4@hotmail.com</t>
+  </si>
+  <si>
+    <t>Víctor Hugo</t>
+  </si>
+  <si>
+    <t>MAYEN RAMIREZ</t>
+  </si>
+  <si>
+    <t>vmayen@queretaro.gob.mx</t>
+  </si>
   <si>
     <t>DONALDO</t>
   </si>
@@ -26,7 +2150,7 @@
     <t>donaldo.morales@sspo.gob.mx</t>
   </si>
   <si>
-    <t>Secretaría de Seguridad Pública del Estado de Oaxaca</t>
+    <t>Oaxaca</t>
   </si>
   <si>
     <t>EDUARDO</t>
@@ -416,7 +2540,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,104 +2548,942 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>708</v>
       </c>
       <c r="B1" t="s">
+        <v>709</v>
+      </c>
+      <c r="C1" t="s">
+        <v>710</v>
+      </c>
+      <c r="D1" t="s">
+        <v>711</v>
+      </c>
+      <c r="E1" t="n">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>712</v>
+      </c>
+      <c r="B2" t="s">
+        <v>713</v>
+      </c>
+      <c r="C2" t="s">
+        <v>714</v>
+      </c>
+      <c r="D2" t="s">
+        <v>711</v>
+      </c>
+      <c r="E2" t="n">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>715</v>
+      </c>
+      <c r="B3" t="s">
+        <v>716</v>
+      </c>
+      <c r="C3" t="s">
+        <v>717</v>
+      </c>
+      <c r="D3" t="s">
+        <v>711</v>
+      </c>
+      <c r="E3" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>718</v>
+      </c>
+      <c r="B4" t="s">
+        <v>719</v>
+      </c>
+      <c r="C4" t="s">
+        <v>720</v>
+      </c>
+      <c r="D4" t="s">
+        <v>711</v>
+      </c>
+      <c r="E4" t="n">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>721</v>
+      </c>
+      <c r="B5" t="s">
+        <v>722</v>
+      </c>
+      <c r="C5" t="s">
+        <v>723</v>
+      </c>
+      <c r="D5" t="s">
+        <v>711</v>
+      </c>
+      <c r="E5" t="n">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>724</v>
+      </c>
+      <c r="B6" t="s">
+        <v>725</v>
+      </c>
+      <c r="C6" t="s">
+        <v>726</v>
+      </c>
+      <c r="D6" t="s">
+        <v>711</v>
+      </c>
+      <c r="E6" t="n">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>727</v>
+      </c>
+      <c r="B7" t="s">
+        <v>728</v>
+      </c>
+      <c r="C7" t="s">
+        <v>729</v>
+      </c>
+      <c r="D7" t="s">
+        <v>711</v>
+      </c>
+      <c r="E7" t="n">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>647</v>
+      </c>
+      <c r="B8" t="s">
+        <v>648</v>
+      </c>
+      <c r="C8" t="s">
+        <v>649</v>
+      </c>
+      <c r="D8" t="s">
+        <v>631</v>
+      </c>
+      <c r="E8" t="n">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>650</v>
+      </c>
+      <c r="B9" t="s">
+        <v>651</v>
+      </c>
+      <c r="C9" t="s">
+        <v>652</v>
+      </c>
+      <c r="D9" t="s">
+        <v>631</v>
+      </c>
+      <c r="E9" t="n">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>653</v>
+      </c>
+      <c r="B10" t="s">
+        <v>654</v>
+      </c>
+      <c r="C10" t="s">
+        <v>655</v>
+      </c>
+      <c r="D10" t="s">
+        <v>631</v>
+      </c>
+      <c r="E10" t="n">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>656</v>
+      </c>
+      <c r="B11" t="s">
+        <v>657</v>
+      </c>
+      <c r="C11" t="s">
+        <v>658</v>
+      </c>
+      <c r="D11" t="s">
+        <v>631</v>
+      </c>
+      <c r="E11" t="n">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>659</v>
+      </c>
+      <c r="B12" t="s">
+        <v>660</v>
+      </c>
+      <c r="C12" t="s">
+        <v>661</v>
+      </c>
+      <c r="D12" t="s">
+        <v>631</v>
+      </c>
+      <c r="E12" t="n">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>662</v>
+      </c>
+      <c r="B13" t="s">
+        <v>663</v>
+      </c>
+      <c r="C13" t="s">
+        <v>664</v>
+      </c>
+      <c r="D13" t="s">
+        <v>631</v>
+      </c>
+      <c r="E13" t="n">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>220</v>
+      </c>
+      <c r="B14" t="s">
+        <v>665</v>
+      </c>
+      <c r="C14" t="s">
+        <v>666</v>
+      </c>
+      <c r="D14" t="s">
+        <v>631</v>
+      </c>
+      <c r="E14" t="n">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>273</v>
+      </c>
+      <c r="B15" t="s">
+        <v>667</v>
+      </c>
+      <c r="C15" t="s">
+        <v>668</v>
+      </c>
+      <c r="D15" t="s">
+        <v>631</v>
+      </c>
+      <c r="E15" t="n">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>669</v>
+      </c>
+      <c r="B16" t="s">
+        <v>670</v>
+      </c>
+      <c r="C16" t="s">
+        <v>671</v>
+      </c>
+      <c r="D16" t="s">
+        <v>631</v>
+      </c>
+      <c r="E16" t="n">
         <v>16</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>307</v>
+      </c>
+      <c r="B17" t="s">
+        <v>672</v>
+      </c>
+      <c r="C17" t="s">
+        <v>673</v>
+      </c>
+      <c r="D17" t="s">
+        <v>631</v>
+      </c>
+      <c r="E17" t="n">
         <v>17</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>184</v>
+      </c>
+      <c r="B18" t="s">
+        <v>674</v>
+      </c>
+      <c r="C18" t="s">
+        <v>675</v>
+      </c>
+      <c r="D18" t="s">
+        <v>631</v>
+      </c>
+      <c r="E18" t="n">
         <v>18</v>
       </c>
-      <c r="D6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>431</v>
+      </c>
+      <c r="B19" t="s">
+        <v>676</v>
+      </c>
+      <c r="C19" t="s">
+        <v>677</v>
+      </c>
+      <c r="D19" t="s">
+        <v>631</v>
+      </c>
+      <c r="E19" t="n">
         <v>19</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>678</v>
+      </c>
+      <c r="B20" t="s">
+        <v>679</v>
+      </c>
+      <c r="C20" t="s">
+        <v>680</v>
+      </c>
+      <c r="D20" t="s">
+        <v>631</v>
+      </c>
+      <c r="E20" t="n">
         <v>20</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>681</v>
+      </c>
+      <c r="B21" t="s">
+        <v>682</v>
+      </c>
+      <c r="C21" t="s">
+        <v>683</v>
+      </c>
+      <c r="D21" t="s">
+        <v>631</v>
+      </c>
+      <c r="E21" t="n">
         <v>21</v>
       </c>
-      <c r="D7" t="s">
-        <v>3</v>
-      </c>
-    </row>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>684</v>
+      </c>
+      <c r="B22" t="s">
+        <v>685</v>
+      </c>
+      <c r="C22" t="s">
+        <v>686</v>
+      </c>
+      <c r="D22" t="s">
+        <v>687</v>
+      </c>
+      <c r="E22" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>688</v>
+      </c>
+      <c r="B23" t="s">
+        <v>689</v>
+      </c>
+      <c r="C23" t="s">
+        <v>690</v>
+      </c>
+      <c r="D23" t="s">
+        <v>631</v>
+      </c>
+      <c r="E23" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>691</v>
+      </c>
+      <c r="B24" t="s">
+        <v>692</v>
+      </c>
+      <c r="C24" t="s">
+        <v>693</v>
+      </c>
+      <c r="D24" t="s">
+        <v>631</v>
+      </c>
+      <c r="E24" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>694</v>
+      </c>
+      <c r="B25" t="s">
+        <v>695</v>
+      </c>
+      <c r="C25" t="s">
+        <v>696</v>
+      </c>
+      <c r="D25" t="s">
+        <v>631</v>
+      </c>
+      <c r="E25" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>697</v>
+      </c>
+      <c r="B26" t="s">
+        <v>698</v>
+      </c>
+      <c r="C26" t="s">
+        <v>699</v>
+      </c>
+      <c r="D26" t="s">
+        <v>631</v>
+      </c>
+      <c r="E26" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" t="s">
+        <v>700</v>
+      </c>
+      <c r="C27" t="s">
+        <v>701</v>
+      </c>
+      <c r="D27" t="s">
+        <v>631</v>
+      </c>
+      <c r="E27" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>702</v>
+      </c>
+      <c r="B28" t="s">
+        <v>703</v>
+      </c>
+      <c r="C28" t="s">
+        <v>704</v>
+      </c>
+      <c r="D28" t="s">
+        <v>631</v>
+      </c>
+      <c r="E28" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>705</v>
+      </c>
+      <c r="B29" t="s">
+        <v>706</v>
+      </c>
+      <c r="C29" t="s">
+        <v>707</v>
+      </c>
+      <c r="D29" t="s">
+        <v>631</v>
+      </c>
+      <c r="E29" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>589</v>
+      </c>
+      <c r="B30" t="s">
+        <v>590</v>
+      </c>
+      <c r="C30" t="s">
+        <v>591</v>
+      </c>
+      <c r="D30" t="s">
+        <v>510</v>
+      </c>
+      <c r="E30" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>592</v>
+      </c>
+      <c r="B31" t="s">
+        <v>593</v>
+      </c>
+      <c r="C31" t="s">
+        <v>594</v>
+      </c>
+      <c r="D31" t="s">
+        <v>510</v>
+      </c>
+      <c r="E31" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>595</v>
+      </c>
+      <c r="B32" t="s">
+        <v>596</v>
+      </c>
+      <c r="C32" t="s">
+        <v>597</v>
+      </c>
+      <c r="D32" t="s">
+        <v>510</v>
+      </c>
+      <c r="E32" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>583</v>
+      </c>
+      <c r="B33" t="s">
+        <v>598</v>
+      </c>
+      <c r="C33" t="s">
+        <v>599</v>
+      </c>
+      <c r="D33" t="s">
+        <v>510</v>
+      </c>
+      <c r="E33" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>600</v>
+      </c>
+      <c r="B34" t="s">
+        <v>601</v>
+      </c>
+      <c r="C34" t="s">
+        <v>602</v>
+      </c>
+      <c r="D34" t="s">
+        <v>510</v>
+      </c>
+      <c r="E34" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>603</v>
+      </c>
+      <c r="B35" t="s">
+        <v>604</v>
+      </c>
+      <c r="C35" t="s">
+        <v>605</v>
+      </c>
+      <c r="D35" t="s">
+        <v>510</v>
+      </c>
+      <c r="E35" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>606</v>
+      </c>
+      <c r="B36" t="s">
+        <v>607</v>
+      </c>
+      <c r="C36" t="s">
+        <v>608</v>
+      </c>
+      <c r="D36" t="s">
+        <v>510</v>
+      </c>
+      <c r="E36" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>609</v>
+      </c>
+      <c r="B37" t="s">
+        <v>610</v>
+      </c>
+      <c r="C37" t="s">
+        <v>611</v>
+      </c>
+      <c r="D37" t="s">
+        <v>510</v>
+      </c>
+      <c r="E37" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>612</v>
+      </c>
+      <c r="B38" t="s">
+        <v>613</v>
+      </c>
+      <c r="C38" t="s">
+        <v>614</v>
+      </c>
+      <c r="D38" t="s">
+        <v>510</v>
+      </c>
+      <c r="E38" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>291</v>
+      </c>
+      <c r="B39" t="s">
+        <v>615</v>
+      </c>
+      <c r="C39" t="s">
+        <v>616</v>
+      </c>
+      <c r="D39" t="s">
+        <v>510</v>
+      </c>
+      <c r="E39" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>252</v>
+      </c>
+      <c r="B40" t="s">
+        <v>617</v>
+      </c>
+      <c r="C40" t="s">
+        <v>618</v>
+      </c>
+      <c r="D40" t="s">
+        <v>510</v>
+      </c>
+      <c r="E40" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>619</v>
+      </c>
+      <c r="B41" t="s">
+        <v>620</v>
+      </c>
+      <c r="C41" t="s">
+        <v>621</v>
+      </c>
+      <c r="D41" t="s">
+        <v>510</v>
+      </c>
+      <c r="E41" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>622</v>
+      </c>
+      <c r="B42" t="s">
+        <v>623</v>
+      </c>
+      <c r="C42" t="s">
+        <v>624</v>
+      </c>
+      <c r="D42" t="s">
+        <v>510</v>
+      </c>
+      <c r="E42" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>625</v>
+      </c>
+      <c r="B43" t="s">
+        <v>626</v>
+      </c>
+      <c r="C43" t="s">
+        <v>627</v>
+      </c>
+      <c r="D43" t="s">
+        <v>510</v>
+      </c>
+      <c r="E43" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5"/>
+    <row r="45" spans="1:5"/>
+    <row r="46" spans="1:5"/>
+    <row r="47" spans="1:5"/>
+    <row r="48" spans="1:5"/>
+    <row r="49" spans="1:5"/>
+    <row r="50" spans="1:5"/>
+    <row r="51" spans="1:5"/>
+    <row r="52" spans="1:5"/>
+    <row r="53" spans="1:5"/>
+    <row r="54" spans="1:5"/>
+    <row r="55" spans="1:5"/>
+    <row r="56" spans="1:5"/>
+    <row r="57" spans="1:5"/>
+    <row r="58" spans="1:5"/>
+    <row r="59" spans="1:5"/>
+    <row r="60" spans="1:5"/>
+    <row r="61" spans="1:5"/>
+    <row r="62" spans="1:5"/>
+    <row r="63" spans="1:5"/>
+    <row r="64" spans="1:5"/>
+    <row r="65" spans="1:5"/>
+    <row r="66" spans="1:5"/>
+    <row r="67" spans="1:5"/>
+    <row r="68" spans="1:5"/>
+    <row r="69" spans="1:5"/>
+    <row r="70" spans="1:5"/>
+    <row r="71" spans="1:5"/>
+    <row r="72" spans="1:5"/>
+    <row r="73" spans="1:5"/>
+    <row r="74" spans="1:5"/>
+    <row r="75" spans="1:5"/>
+    <row r="76" spans="1:5"/>
+    <row r="77" spans="1:5"/>
+    <row r="78" spans="1:5"/>
+    <row r="79" spans="1:5"/>
+    <row r="80" spans="1:5"/>
+    <row r="81" spans="1:5"/>
+    <row r="82" spans="1:5"/>
+    <row r="83" spans="1:5"/>
+    <row r="84" spans="1:5"/>
+    <row r="85" spans="1:5"/>
+    <row r="86" spans="1:5"/>
+    <row r="87" spans="1:5"/>
+    <row r="88" spans="1:5"/>
+    <row r="89" spans="1:5"/>
+    <row r="90" spans="1:5"/>
+    <row r="91" spans="1:5"/>
+    <row r="92" spans="1:5"/>
+    <row r="93" spans="1:5"/>
+    <row r="94" spans="1:5"/>
+    <row r="95" spans="1:5"/>
+    <row r="96" spans="1:5"/>
+    <row r="97" spans="1:5"/>
+    <row r="98" spans="1:5"/>
+    <row r="99" spans="1:5"/>
+    <row r="100" spans="1:5"/>
+    <row r="101" spans="1:5"/>
+    <row r="102" spans="1:5"/>
+    <row r="103" spans="1:5"/>
+    <row r="104" spans="1:5"/>
+    <row r="105" spans="1:5"/>
+    <row r="106" spans="1:5"/>
+    <row r="107" spans="1:5"/>
+    <row r="108" spans="1:5"/>
+    <row r="109" spans="1:5"/>
+    <row r="110" spans="1:5"/>
+    <row r="111" spans="1:5"/>
+    <row r="112" spans="1:5"/>
+    <row r="113" spans="1:5"/>
+    <row r="114" spans="1:5"/>
+    <row r="115" spans="1:5"/>
+    <row r="116" spans="1:5"/>
+    <row r="117" spans="1:5"/>
+    <row r="118" spans="1:5"/>
+    <row r="119" spans="1:5"/>
+    <row r="120" spans="1:5"/>
+    <row r="121" spans="1:5"/>
+    <row r="122" spans="1:5"/>
+    <row r="123" spans="1:5"/>
+    <row r="124" spans="1:5"/>
+    <row r="125" spans="1:5"/>
+    <row r="126" spans="1:5"/>
+    <row r="127" spans="1:5"/>
+    <row r="128" spans="1:5"/>
+    <row r="129" spans="1:5"/>
+    <row r="130" spans="1:5"/>
+    <row r="131" spans="1:5"/>
+    <row r="132" spans="1:5"/>
+    <row r="133" spans="1:5"/>
+    <row r="134" spans="1:5"/>
+    <row r="135" spans="1:5"/>
+    <row r="136" spans="1:5"/>
+    <row r="137" spans="1:5"/>
+    <row r="138" spans="1:5"/>
+    <row r="139" spans="1:5"/>
+    <row r="140" spans="1:5"/>
+    <row r="141" spans="1:5"/>
+    <row r="142" spans="1:5"/>
+    <row r="143" spans="1:5"/>
+    <row r="144" spans="1:5"/>
+    <row r="145" spans="1:5"/>
+    <row r="146" spans="1:5"/>
+    <row r="147" spans="1:5"/>
+    <row r="148" spans="1:5"/>
+    <row r="149" spans="1:5"/>
+    <row r="150" spans="1:5"/>
+    <row r="151" spans="1:5"/>
+    <row r="152" spans="1:5"/>
+    <row r="153" spans="1:5"/>
+    <row r="154" spans="1:5"/>
+    <row r="155" spans="1:5"/>
+    <row r="156" spans="1:5"/>
+    <row r="157" spans="1:5"/>
+    <row r="158" spans="1:5"/>
+    <row r="159" spans="1:5"/>
+    <row r="160" spans="1:5"/>
+    <row r="161" spans="1:5"/>
+    <row r="162" spans="1:5"/>
+    <row r="163" spans="1:5"/>
+    <row r="164" spans="1:5"/>
+    <row r="165" spans="1:5"/>
+    <row r="166" spans="1:5"/>
+    <row r="167" spans="1:5"/>
+    <row r="168" spans="1:5"/>
+    <row r="169" spans="1:5"/>
+    <row r="170" spans="1:5"/>
+    <row r="171" spans="1:5"/>
+    <row r="172" spans="1:5"/>
+    <row r="173" spans="1:5"/>
+    <row r="174" spans="1:5"/>
+    <row r="175" spans="1:5"/>
+    <row r="176" spans="1:5"/>
+    <row r="177" spans="1:5"/>
+    <row r="178" spans="1:5"/>
+    <row r="179" spans="1:5"/>
+    <row r="180" spans="1:5"/>
+    <row r="181" spans="1:5"/>
+    <row r="182" spans="1:5"/>
+    <row r="183" spans="1:5"/>
+    <row r="184" spans="1:5"/>
+    <row r="185" spans="1:5"/>
+    <row r="186" spans="1:5"/>
+    <row r="187" spans="1:5"/>
+    <row r="188" spans="1:5"/>
+    <row r="189" spans="1:5"/>
+    <row r="190" spans="1:5"/>
+    <row r="191" spans="1:5"/>
+    <row r="192" spans="1:5"/>
+    <row r="193" spans="1:5"/>
+    <row r="194" spans="1:5"/>
+    <row r="195" spans="1:5"/>
+    <row r="196" spans="1:5"/>
+    <row r="197" spans="1:5"/>
+    <row r="198" spans="1:5"/>
+    <row r="199" spans="1:5"/>
+    <row r="200" spans="1:5"/>
+    <row r="201" spans="1:5"/>
+    <row r="202" spans="1:5"/>
+    <row r="203" spans="1:5"/>
+    <row r="204" spans="1:5"/>
+    <row r="205" spans="1:5"/>
+    <row r="206" spans="1:5"/>
+    <row r="207" spans="1:5"/>
+    <row r="208" spans="1:5"/>
+    <row r="209" spans="1:5"/>
+    <row r="210" spans="1:5"/>
+    <row r="211" spans="1:5"/>
+    <row r="212" spans="1:5"/>
+    <row r="213" spans="1:5"/>
+    <row r="214" spans="1:5"/>
+    <row r="215" spans="1:5"/>
+    <row r="216" spans="1:5"/>
+    <row r="217" spans="1:5"/>
+    <row r="218" spans="1:5"/>
+    <row r="219" spans="1:5"/>
+    <row r="220" spans="1:5"/>
+    <row r="221" spans="1:5"/>
+    <row r="222" spans="1:5"/>
+    <row r="223" spans="1:5"/>
+    <row r="224" spans="1:5"/>
+    <row r="225" spans="1:5"/>
+    <row r="226" spans="1:5"/>
+    <row r="227" spans="1:5"/>
+    <row r="228" spans="1:5"/>
+    <row r="229" spans="1:5"/>
+    <row r="230" spans="1:5"/>
+    <row r="231" spans="1:5"/>
+    <row r="232" spans="1:5"/>
+    <row r="233" spans="1:5"/>
+    <row r="234" spans="1:5"/>
+    <row r="235" spans="1:5"/>
+    <row r="236" spans="1:5"/>
+    <row r="237" spans="1:5"/>
+    <row r="238" spans="1:5"/>
+    <row r="239" spans="1:5"/>
+    <row r="240" spans="1:5"/>
+    <row r="241" spans="1:5"/>
+    <row r="242" spans="1:5"/>
+    <row r="243" spans="1:5"/>
+    <row r="244" spans="1:5"/>
+    <row r="245" spans="1:5"/>
+    <row r="246" spans="1:5"/>
+    <row r="247" spans="1:5"/>
+    <row r="248" spans="1:5"/>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
